--- a/biology/Biologie cellulaire et moléculaire/APAF1/APAF1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/APAF1/APAF1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apaf-1 (Apoptotic peptidase activating factor 1) est une protéine qui rentre dans la composition de l'apoptosome et joue un rôle dans la voie de signalisation intrinsèque déclenchant l'apoptose.
 Apaf-1 est présent dans le cytosol à l'état normal de la cellule, mais il est sous une conformation repliée inactive. La liaison du cytochrome c (CYC) à l'Apaf-1 entraîne une modification conformationnelle et l'exposition du domaine CARD, qui permet à plusieurs protéines Apaf-1 activées de s'assembler : c'est l'apoptosome.
@@ -512,9 +524,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Apaf-1 possède 3 domaines notables[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Apaf-1 possède 3 domaines notables.
 un domaine CARD (en) N-terminal permettant le recrutement de caspases (en particulier la caspase 9)
 un domaine NOD permettant la polymérisation (fixation avec d'autres apaf-1)
 un domaine WRD C-terminal permettant la fixation du cytochrome c.</t>
